--- a/cdes/RADx-rad_Technology_Data_Element_Template_v000.xlsx
+++ b/cdes/RADx-rad_Technology_Data_Element_Template_v000.xlsx
@@ -153,7 +153,7 @@
     <t>Type of signal generated by the methods or assay</t>
   </si>
   <si>
-    <t>amperometric | chemiluminescent | chromatographic | colorimetric | displacement | fluorogenic |  gas-chromatograpic | impedimetric | MS chromatogram | olfactory perception | Raman scattering intensity | electrical resistance |voltammetric | PCR</t>
+    <t>amperometric | chemiluminescent | chromatographic | colorimetric | displacement | fluorogenic |  gas-chromatographic | impedimetric | MS chromatogram | olfactory perception | Raman scattering intensity | electrical resistance |voltammetric | PCR</t>
   </si>
   <si>
     <t>example: amerometric</t>

--- a/cdes/RADx-rad_Technology_Data_Element_Template_v000.xlsx
+++ b/cdes/RADx-rad_Technology_Data_Element_Template_v000.xlsx
@@ -6121,7 +6121,7 @@
         <v>89</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>181</v>
@@ -17171,7 +17171,7 @@
         <v>644</v>
       </c>
       <c r="C355" s="37" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>712</v>
